--- a/Results/all-datasets-results.xlsx
+++ b/Results/all-datasets-results.xlsx
@@ -447,7 +447,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>168.50932264328</v>
+        <v>167.4818732738495</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -464,7 +464,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>123.013897895813</v>
+        <v>124.1349639892578</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -481,7 +481,7 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>31.22707438468933</v>
+        <v>31.39146852493286</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -498,7 +498,7 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>67.79880857467651</v>
+        <v>70.40288209915161</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -515,7 +515,7 @@
         <v>13</v>
       </c>
       <c r="E6">
-        <v>838.0873348712921</v>
+        <v>876.0575940608978</v>
       </c>
     </row>
   </sheetData>
